--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/timeOutGames/1CraftbetDataTimeOutGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/timeOutGames/1CraftbetDataTimeOutGamesList.xlsx
@@ -12,9 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>3693263   LoL Pro League   Top Esports (LOL)  VS  JD Gaming (LOL)   E-sports   2022-08-26T13:00:00  Status = 1   After game start time out = :  4 hours  33 minutes</t>
+    <t>3708960   UruguaySegundaBNacional   Deportivo Colonia  VS  Club Oriental   Soccer   2022-08-27T22:48:33  Status = 1   After game start time out = :  16 hours  11 minutes</t>
+  </si>
+  <si>
+    <t>3708111   ITFW60Prerov   Irene Burillo Escorihuela  VS  Sada Nahimana   Tennis   2022-08-27T16:30:47  Status = 1   After game start time out = :  22 hours  29 minutes</t>
+  </si>
+  <si>
+    <t>3704769   ITF-M Celje   Roko Horvat  VS  Daniele Capecchi   Tennis   2022-08-27T18:00:00  Status = 1   After game start time out = :  21 hours  0 minutes</t>
+  </si>
+  <si>
+    <t>3709022   NFLPreseason   JAX Jaguars  VS  ATL Falcons   American Football   2022-08-27T22:58:53  Status = 1   After game start time out = :  16 hours  1 minutes</t>
+  </si>
+  <si>
+    <t>3708393   World Championships Women   Akane Yamaguchi  VS  CHEN Yu Fei   Badminton   2022-08-28T12:00:00  Status = 1   After game start time out = :  2 hours  59 minutes</t>
+  </si>
+  <si>
+    <t>3709018   MLB   LA Angels  VS  TOR Blue Jays   Baseball   2022-08-27T22:54:31  Status = 1   After game start time out = :  16 hours  5 minutes</t>
+  </si>
+  <si>
+    <t>3696193   European Championships Women   Hungary (W)  VS  Greece (W)   Water Polo   2022-08-27T22:30:00  Status = 1   After game start time out = :  16 hours  30 minutes</t>
+  </si>
+  <si>
+    <t>3708552   Curragh   4.15 Curragh (Race 6)  VS  ~N/A~   Horse Racing   2022-08-27T18:45:09  Status = 1   After game start time out = :  20 hours  15 minutes</t>
+  </si>
+  <si>
+    <t>3709013   SanIsidro   8.15 San Isidro (Race 7)  VS  ~N/A~   Horse Racing   2022-08-27T22:50:04  Status = 1   After game start time out = :  16 hours  10 minutes</t>
+  </si>
+  <si>
+    <t>3709037   EllisPark   Race 4 Ellis Park  VS  ~N/A~   Horse Racing   2022-08-27T23:05:03  Status = 1   After game start time out = :  15 hours  55 minutes</t>
   </si>
 </sst>
 </file>
@@ -59,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -73,6 +100,51 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/timeOutGames/1CraftbetDataTimeOutGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/timeOutGames/1CraftbetDataTimeOutGamesList.xlsx
@@ -12,36 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>3708960   UruguaySegundaBNacional   Deportivo Colonia  VS  Club Oriental   Soccer   2022-08-27T22:48:33  Status = 1   After game start time out = :  16 hours  11 minutes</t>
+    <t>3711248   GeorgiaFirstLeague   FC Rustavi  VS  FC Merani Tbilisi   Soccer   2022-08-28T17:25:19  Status = 1   After game start time out = :  4 hours  54 minutes</t>
   </si>
   <si>
-    <t>3708111   ITFW60Prerov   Irene Burillo Escorihuela  VS  Sada Nahimana   Tennis   2022-08-27T16:30:47  Status = 1   After game start time out = :  22 hours  29 minutes</t>
+    <t>3709022   NFLPreseason   JAX Jaguars  VS  ATL Falcons   American Football   2022-08-27T22:58:53  Status = 1   After game start time out = :  23 hours  21 minutes</t>
   </si>
   <si>
-    <t>3704769   ITF-M Celje   Roko Horvat  VS  Daniele Capecchi   Tennis   2022-08-27T18:00:00  Status = 1   After game start time out = :  21 hours  0 minutes</t>
+    <t>3708907   Counter Strike - BLAST Premier   Ninjas in Pyjamas  VS  Heroic   E-sports   2022-08-28T18:30:00  Status = 1   After game start time out = :  3 hours  49 minutes</t>
   </si>
   <si>
-    <t>3709022   NFLPreseason   JAX Jaguars  VS  ATL Falcons   American Football   2022-08-27T22:58:53  Status = 1   After game start time out = :  16 hours  1 minutes</t>
+    <t>3664840   LoL - LEC Spring   Fnatic (LOL)  VS  exceL (LOL)   E-sports   2022-08-28T19:00:00  Status = 1   After game start time out = :  3 hours  19 minutes</t>
   </si>
   <si>
-    <t>3708393   World Championships Women   Akane Yamaguchi  VS  CHEN Yu Fei   Badminton   2022-08-28T12:00:00  Status = 1   After game start time out = :  2 hours  59 minutes</t>
+    <t>3710972   Club Friendlies   Hatay Buyuksehir  VS  Mihaliccik SK   Handball   2022-08-28T20:00:00  Status = 1   After game start time out = :  2 hours  19 minutes</t>
   </si>
   <si>
-    <t>3709018   MLB   LA Angels  VS  TOR Blue Jays   Baseball   2022-08-27T22:54:31  Status = 1   After game start time out = :  16 hours  5 minutes</t>
+    <t>3709018   MLB   LA Angels  VS  TOR Blue Jays   Baseball   2022-08-27T22:54:31  Status = 1   After game start time out = :  23 hours  26 minutes</t>
   </si>
   <si>
-    <t>3696193   European Championships Women   Hungary (W)  VS  Greece (W)   Water Polo   2022-08-27T22:30:00  Status = 1   After game start time out = :  16 hours  30 minutes</t>
+    <t>3696193   European Championships Women   Hungary (W)  VS  Greece (W)   Water Polo   2022-08-27T22:30:00  Status = 1   After game start time out = :  23 hours  50 minutes</t>
   </si>
   <si>
-    <t>3708552   Curragh   4.15 Curragh (Race 6)  VS  ~N/A~   Horse Racing   2022-08-27T18:45:09  Status = 1   After game start time out = :  20 hours  15 minutes</t>
+    <t>3709013   SanIsidro   8.15 San Isidro (Race 7)  VS  ~N/A~   Horse Racing   2022-08-27T22:50:04  Status = 1   After game start time out = :  23 hours  30 minutes</t>
   </si>
   <si>
-    <t>3709013   SanIsidro   8.15 San Isidro (Race 7)  VS  ~N/A~   Horse Racing   2022-08-27T22:50:04  Status = 1   After game start time out = :  16 hours  10 minutes</t>
-  </si>
-  <si>
-    <t>3709037   EllisPark   Race 4 Ellis Park  VS  ~N/A~   Horse Racing   2022-08-27T23:05:03  Status = 1   After game start time out = :  15 hours  55 minutes</t>
+    <t>3709037   EllisPark   Race 4 Ellis Park  VS  ~N/A~   Horse Racing   2022-08-27T23:05:03  Status = 1   After game start time out = :  23 hours  15 minutes</t>
   </si>
 </sst>
 </file>
@@ -86,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -140,11 +137,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/timeOutGames/1CraftbetDataTimeOutGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/timeOutGames/1CraftbetDataTimeOutGamesList.xlsx
@@ -12,33 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>3711248   GeorgiaFirstLeague   FC Rustavi  VS  FC Merani Tbilisi   Soccer   2022-08-28T17:25:19  Status = 1   After game start time out = :  4 hours  54 minutes</t>
+    <t>3710538   ITF-M Maribor   Frane Nincevic  VS  Domen Gostincar   Tennis   2022-08-28T23:05:00  Status = 1   After game start time out = :  14 hours  31 minutes</t>
   </si>
   <si>
-    <t>3709022   NFLPreseason   JAX Jaguars  VS  ATL Falcons   American Football   2022-08-27T22:58:53  Status = 1   After game start time out = :  23 hours  21 minutes</t>
-  </si>
-  <si>
-    <t>3708907   Counter Strike - BLAST Premier   Ninjas in Pyjamas  VS  Heroic   E-sports   2022-08-28T18:30:00  Status = 1   After game start time out = :  3 hours  49 minutes</t>
-  </si>
-  <si>
-    <t>3664840   LoL - LEC Spring   Fnatic (LOL)  VS  exceL (LOL)   E-sports   2022-08-28T19:00:00  Status = 1   After game start time out = :  3 hours  19 minutes</t>
-  </si>
-  <si>
-    <t>3710972   Club Friendlies   Hatay Buyuksehir  VS  Mihaliccik SK   Handball   2022-08-28T20:00:00  Status = 1   After game start time out = :  2 hours  19 minutes</t>
-  </si>
-  <si>
-    <t>3709018   MLB   LA Angels  VS  TOR Blue Jays   Baseball   2022-08-27T22:54:31  Status = 1   After game start time out = :  23 hours  26 minutes</t>
-  </si>
-  <si>
-    <t>3696193   European Championships Women   Hungary (W)  VS  Greece (W)   Water Polo   2022-08-27T22:30:00  Status = 1   After game start time out = :  23 hours  50 minutes</t>
-  </si>
-  <si>
-    <t>3709013   SanIsidro   8.15 San Isidro (Race 7)  VS  ~N/A~   Horse Racing   2022-08-27T22:50:04  Status = 1   After game start time out = :  23 hours  30 minutes</t>
-  </si>
-  <si>
-    <t>3709037   EllisPark   Race 4 Ellis Park  VS  ~N/A~   Horse Racing   2022-08-27T23:05:03  Status = 1   After game start time out = :  23 hours  15 minutes</t>
+    <t>3711395   Czech Liga Pro   Alexander Hejduk  VS  Vladimir Kubat   Table Tennis   2022-08-29T11:00:00  Status = 1   After game start time out = :  2 hours  35 minutes</t>
   </si>
 </sst>
 </file>
@@ -83,7 +62,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -102,41 +81,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/timeOutGames/1CraftbetDataTimeOutGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/timeOutGames/1CraftbetDataTimeOutGamesList.xlsx
@@ -12,12 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>3710538   ITF-M Maribor   Frane Nincevic  VS  Domen Gostincar   Tennis   2022-08-28T23:05:00  Status = 1   After game start time out = :  14 hours  31 minutes</t>
-  </si>
-  <si>
-    <t>3711395   Czech Liga Pro   Alexander Hejduk  VS  Vladimir Kubat   Table Tennis   2022-08-29T11:00:00  Status = 1   After game start time out = :  2 hours  35 minutes</t>
+    <t>3714203   JapanNPBReserveLeague   Yomiuri Giants Reserves  VS  Nipponham Fighters Reserves   Baseball   2022-08-30T07:55:57  Status = 1   After game start time out = :  6 hours  19 minutes</t>
   </si>
 </sst>
 </file>
@@ -62,7 +59,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -76,11 +73,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/timeOutGames/1CraftbetDataTimeOutGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/timeOutGames/1CraftbetDataTimeOutGamesList.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>3714203   JapanNPBReserveLeague   Yomiuri Giants Reserves  VS  Nipponham Fighters Reserves   Baseball   2022-08-30T07:55:57  Status = 1   After game start time out = :  6 hours  19 minutes</t>
+    <t>3714203   JapanNPBReserveLeague   Yomiuri Giants Reserves  VS  Nipponham Fighters Reserves   Baseball   2022-08-30T07:55:57  Status = 1   After game start time out = :  14 hours  7 minutes</t>
   </si>
 </sst>
 </file>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/timeOutGames/1CraftbetDataTimeOutGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/timeOutGames/1CraftbetDataTimeOutGamesList.xlsx
@@ -12,9 +12,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>3714203   JapanNPBReserveLeague   Yomiuri Giants Reserves  VS  Nipponham Fighters Reserves   Baseball   2022-08-30T07:55:57  Status = 1   After game start time out = :  14 hours  7 minutes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>3714929   ArgentinaReserveLeague   CS Dock Sud Reserves  VS  Canuelas FC Reserves   Soccer   2022-08-30T21:06:56  Status = 1   After game start time out = :  13 hours  45 minutes</t>
+  </si>
+  <si>
+    <t>3714930   EstoniaMeistriliiga   JK Tammeka Tartu  VS  FC Kuressaare   Soccer   2022-08-30T21:06:56  Status = 1   After game start time out = :  13 hours  45 minutes</t>
+  </si>
+  <si>
+    <t>3714932   NorwayDivision3Group4   Eik Tønsberg  VS  Start 2   Soccer   2022-08-30T21:06:56  Status = 1   After game start time out = :  13 hours  45 minutes</t>
+  </si>
+  <si>
+    <t>3714933   U19International   Spain U19  VS  Israel U19   Soccer   2022-08-30T21:06:56  Status = 1   After game start time out = :  13 hours  45 minutes</t>
+  </si>
+  <si>
+    <t>3714937   KuwaitLeague   Al Arabi SC  VS  Al Salmiyah SC   Soccer   2022-08-30T21:06:56  Status = 1   After game start time out = :  13 hours  45 minutes</t>
+  </si>
+  <si>
+    <t>3714936   DenmarkCup   Kolding IF  VS  Sonderjyske   Soccer   2022-08-30T21:06:56  Status = 1   After game start time out = :  13 hours  45 minutes</t>
+  </si>
+  <si>
+    <t>3714941   UruguayReserveLeague   Albion FC Reserves  VS  Torque Reserves   Soccer   2022-08-30T21:06:58  Status = 1   After game start time out = :  13 hours  45 minutes</t>
+  </si>
+  <si>
+    <t>3714981   ArgentinaReserveLeague   Deportivo Armenio Reserves  VS  Club Comunicaciones Reserves   Soccer   2022-08-30T21:52:02  Status = 1   After game start time out = :  13 hours  0 minutes</t>
+  </si>
+  <si>
+    <t>3703870   ATP US Open   Joao Sousa  VS  Mackenzie McDonald   Tennis   2022-08-30T19:00:00  Status = 1   After game start time out = :  15 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3708659   ATP US Open   John Isner  VS  Federico Delbonis   Tennis   2022-08-30T20:35:00  Status = 1   After game start time out = :  14 hours  17 minutes</t>
+  </si>
+  <si>
+    <t>3704002   WTA US Open   Bernarda Pera  VS  Anhelina Kalinina   Tennis   2022-08-30T21:00:00  Status = 1   After game start time out = :  13 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3711743   ATP CH Mallorca Doubles   Alexander Donski / Alexandar Lazarov  VS  Jay Clarke / Daniel Masur   Tennis   2022-08-30T21:15:00  Status = 1   After game start time out = :  13 hours  37 minutes</t>
+  </si>
+  <si>
+    <t>3703845   ATP US Open   Laslo Djere  VS  Andrey Rublev   Tennis   2022-08-30T21:20:00  Status = 1   After game start time out = :  13 hours  32 minutes</t>
+  </si>
+  <si>
+    <t>3714988   EbasketballH2HGGLeague-4x5mins   PHX Suns (PLANKAVELLI) Esports  VS  LA Clippers (Active PG) Esports   Basketball   2022-08-30T21:59:32  Status = 1   After game start time out = :  12 hours  53 minutes</t>
+  </si>
+  <si>
+    <t>3708138   ATP US Open   Borna Coric  VS  Enzo Couacaud   Tennis   2022-08-30T23:00:00  Status = 1   After game start time out = :  11 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3703966   ATP US Open   Daniel Altmaier  VS  Jannik Sinner   Tennis   2022-08-30T23:00:00  Status = 1   After game start time out = :  11 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3708077   WTA US Open   Yue Yuan  VS  Jaimee Fourlis   Tennis   2022-08-30T23:45:00  Status = 1   After game start time out = :  11 hours  7 minutes</t>
+  </si>
+  <si>
+    <t>3703848   ATP US Open   Jenson Brooksby  VS  Dusan Lajovic   Tennis   2022-08-31T00:10:00  Status = 1   After game start time out = :  10 hours  41 minutes</t>
+  </si>
+  <si>
+    <t>3703956   WTA US Open   Varvara Gracheva  VS  Petra Martic   Tennis   2022-08-31T00:15:00  Status = 1   After game start time out = :  10 hours  36 minutes</t>
+  </si>
+  <si>
+    <t>3708203   ATP US Open   Adrian Mannarino  VS  Gijs Brouwer   Tennis   2022-08-31T00:25:00  Status = 1   After game start time out = :  10 hours  26 minutes</t>
+  </si>
+  <si>
+    <t>3703957   WTA US Open   Elise Mertens  VS  Irina-Camelia Begu   Tennis   2022-08-31T00:25:00  Status = 1   After game start time out = :  10 hours  26 minutes</t>
+  </si>
+  <si>
+    <t>3718351   Superliga   Toros de Aragua  VS  Heroes de Falcon   Basketball   2022-08-31T01:00:00  Status = 1   After game start time out = :  9 hours  51 minutes</t>
+  </si>
+  <si>
+    <t>3703979   WTA US Open   Amanda Anisimova  VS  Yulia Putintseva   Tennis   2022-08-31T01:10:00  Status = 1   After game start time out = :  9 hours  41 minutes</t>
+  </si>
+  <si>
+    <t>3703871   ATP US Open   Jason Kubler  VS  Mikael Ymer   Tennis   2022-08-31T02:25:00  Status = 1   After game start time out = :  8 hours  26 minutes</t>
+  </si>
+  <si>
+    <t>3717431   TT-CUP   Vaclav Hejda Jr  VS  Milos Frydl   Table Tennis   2022-08-30T22:50:00  Status = 1   After game start time out = :  12 hours  2 minutes</t>
+  </si>
+  <si>
+    <t>3717792   Czech Liga Pro   Jiri Louda  VS  Tomas Holik   Table Tennis   2022-08-31T00:00:00  Status = 1   After game start time out = :  10 hours  51 minutes</t>
+  </si>
+  <si>
+    <t>3717742   Czech Liga Pro   Jiri Vanous  VS  Robert Koczy   Table Tennis   2022-08-31T00:00:00  Status = 1   After game start time out = :  10 hours  51 minutes</t>
+  </si>
+  <si>
+    <t>3717362   Setka Cup   Volodymyr Kuzmych  VS  Viktor Slozka   Table Tennis   2022-08-31T01:00:00  Status = 1   After game start time out = :  9 hours  51 minutes</t>
+  </si>
+  <si>
+    <t>3718449   SetkaCup   Volodymyr Kuzmych  VS  Viktor Slozka   Table Tennis   2022-08-31T01:18:12  Status = 1   After game start time out = :  9 hours  33 minutes</t>
+  </si>
+  <si>
+    <t>3717137   Japan Open WD   Benyapa AIMSAARD / Nuntakarn AIMSAARD  VS  DU Yue / LI Wen Mei   Badminton   2022-08-31T07:20:00  Status = 1   After game start time out = :  3 hours  31 minutes</t>
+  </si>
+  <si>
+    <t>3717542   Japan Open   Rasmus Gemke  VS  Nhat Nguyen   Badminton   2022-08-31T08:00:00  Status = 1   After game start time out = :  2 hours  51 minutes</t>
+  </si>
+  <si>
+    <t>3714985   Thistledown   Race 4 Thistledown  VS  ~N/A~   Horse Racing   2022-08-30T21:57:32  Status = 1   After game start time out = :  12 hours  55 minutes</t>
+  </si>
+  <si>
+    <t>3714991   HorseshoeIndia   Race 1 Horseshoe Indiana  VS  ~N/A~   Horse Racing   2022-08-30T22:03:32  Status = 1   After game start time out = :  12 hours  49 minutes</t>
+  </si>
+  <si>
+    <t>3714992   BelterraPark   Race 5 Belterra Park  VS  ~N/A~   Horse Racing   2022-08-30T22:05:32  Status = 1   After game start time out = :  12 hours  47 minutes</t>
+  </si>
+  <si>
+    <t>3714993   FairmountPark   Race 2 Fairmount Park  VS  ~N/A~   Horse Racing   2022-08-30T22:07:02  Status = 1   After game start time out = :  12 hours  45 minutes</t>
   </si>
 </sst>
 </file>
@@ -59,7 +161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -73,6 +175,176 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/timeOutGames/1CraftbetDataTimeOutGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/timeOutGames/1CraftbetDataTimeOutGamesList.xlsx
@@ -12,27 +12,171 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>3720514   Counter Strike - CCT Central Europe   Eternal Fire (CS)  VS  ENTERPRISE (CS)   E-sports   2022-09-01T12:00:00  Status = 1   After game start time out = :  4 hours  3 minutes</t>
-  </si>
-  <si>
-    <t>3711340   Counter Strike - Elisa Invitational   EYEBALLERS (CS)  VS  Into The Breach (CS)   E-sports   2022-09-01T13:00:00  Status = 1   After game start time out = :  3 hours  3 minutes</t>
-  </si>
-  <si>
-    <t>3711254   LoL Pro League   JD Gaming (LOL)  VS  Top Esports (LOL)   E-sports   2022-09-01T13:00:00  Status = 1   After game start time out = :  3 hours  3 minutes</t>
-  </si>
-  <si>
-    <t>3722387   MLB   HOU Astros  VS  TEX Rangers   Baseball   2022-08-31T23:37:00  Status = 1   After game start time out = :  16 hours  27 minutes</t>
-  </si>
-  <si>
-    <t>3722400   MLB   PIT Pirates  VS  MIL Brewers   Baseball   2022-08-31T23:37:00  Status = 1   After game start time out = :  16 hours  27 minutes</t>
-  </si>
-  <si>
-    <t>3722373   MLB   SD Padres  VS  SF Giants   Baseball   2022-08-31T23:51:09  Status = 1   After game start time out = :  16 hours  13 minutes</t>
-  </si>
-  <si>
-    <t>3722357   DelawarePark   Race 7 Delaware Park  VS  ~N/A~   Horse Racing   2022-08-31T23:51:09  Status = 1   After game start time out = :  16 hours  13 minutes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+  <si>
+    <t>3722266   ITF-M Pescara   Simone Roncalli  VS  Julian Ocleppo   Tennis   2022-09-01T12:30:00  Status = 1   After game start time out = :  20 hours  46 minutes</t>
+  </si>
+  <si>
+    <t>3723300   Pro League   Vladimir Ivanov  VS  Tiran Sanghera   Tennis   2022-09-01T16:30:00  Status = 1   After game start time out = :  16 hours  46 minutes</t>
+  </si>
+  <si>
+    <t>3723296   Pro League Women   Eliz Maloney  VS  Elena Malygina   Tennis   2022-09-01T17:45:00  Status = 1   After game start time out = :  15 hours  31 minutes</t>
+  </si>
+  <si>
+    <t>3723047   ATP CH Mallorca   Leandro Riedi  VS  Dmitry Popko   Tennis   2022-09-01T18:00:00  Status = 1   After game start time out = :  15 hours  16 minutes</t>
+  </si>
+  <si>
+    <t>3723248   ITF-W Leiria   Taylor Ng  VS  Sakura Hosogi   Tennis   2022-09-01T18:25:00  Status = 1   After game start time out = :  14 hours  51 minutes</t>
+  </si>
+  <si>
+    <t>3723113   ITF-W Trieste   Lisa Pigato  VS  Miriam Bianca Bulgaru   Tennis   2022-09-01T18:30:00  Status = 1   After game start time out = :  14 hours  46 minutes</t>
+  </si>
+  <si>
+    <t>3722569   ATP CH Como Doubles   Lukas Klein / Igor Zelenay  VS  Dustin Brown / Julian Lenz   Tennis   2022-09-01T18:30:00  Status = 1   After game start time out = :  14 hours  46 minutes</t>
+  </si>
+  <si>
+    <t>3719397   ATP US Open   Borna Coric  VS  Jenson Brooksby   Tennis   2022-09-01T19:00:00  Status = 1   After game start time out = :  14 hours  16 minutes</t>
+  </si>
+  <si>
+    <t>3716561   ATP US Open Doubles   Hugo Nys / Jan Zielinski  VS  Fabrice Martin / Jonny O'mara   Tennis   2022-09-01T19:00:00  Status = 1   After game start time out = :  14 hours  16 minutes</t>
+  </si>
+  <si>
+    <t>3719117   ATP US Open   James Duckworth  VS  Daniel Evans   Tennis   2022-09-01T19:00:00  Status = 1   After game start time out = :  14 hours  16 minutes</t>
+  </si>
+  <si>
+    <t>3723021   WTA US Open   Lauren Davis  VS  Ekaterina Alexandrova   Tennis   2022-09-01T19:00:00  Status = 1   After game start time out = :  14 hours  16 minutes</t>
+  </si>
+  <si>
+    <t>3723137   ITF-W Vienna Doubles   Lucia Cortez Llorca / Zeel Desai  VS  Gergana Topalova / Daniela Vismane   Tennis   2022-09-01T19:00:00  Status = 1   After game start time out = :  14 hours  16 minutes</t>
+  </si>
+  <si>
+    <t>3716587   WTA US Open Doubles   Mandlik/Scott  VS  Bogdan/Santamaria   Tennis   2022-09-01T19:00:00  Status = 1   After game start time out = :  14 hours  16 minutes</t>
+  </si>
+  <si>
+    <t>3716553   ATP US Open Doubles   Santiago Gonzalez / Andres Molteni  VS  Matthew Ebden / Max Purcell   Tennis   2022-09-01T19:00:00  Status = 1   After game start time out = :  14 hours  16 minutes</t>
+  </si>
+  <si>
+    <t>3716578   ATP US Open Doubles   Sebastian Gorzny / Alex Michelsen  VS  Juan Sebastian Cabal / Robert Farah   Tennis   2022-09-01T19:00:00  Status = 1   After game start time out = :  14 hours  16 minutes</t>
+  </si>
+  <si>
+    <t>3719396   WTA US Open   Sorana Cirstea  VS  Belinda Bencic   Tennis   2022-09-01T19:00:00  Status = 1   After game start time out = :  14 hours  16 minutes</t>
+  </si>
+  <si>
+    <t>3719395   ATP US Open   Marin Cilic  VS  Albert Ramos-Vinolas   Tennis   2022-09-01T19:05:00  Status = 1   After game start time out = :  14 hours  11 minutes</t>
+  </si>
+  <si>
+    <t>3719605   WTA US Open   Marta Kostyuk  VS  Victoria Azarenka   Tennis   2022-09-01T19:05:00  Status = 1   After game start time out = :  14 hours  11 minutes</t>
+  </si>
+  <si>
+    <t>3721074   ITF-M Haren Doubles   Brian Bozemoj / Roland Stuurman  VS  Hussey G / Tamm K   Tennis   2022-09-01T19:10:00  Status = 1   After game start time out = :  14 hours  6 minutes</t>
+  </si>
+  <si>
+    <t>3719245   ATP CH Toulouse   Arthur Fils  VS  Ugo Blanchet   Tennis   2022-09-01T19:15:00  Status = 1   After game start time out = :  14 hours  1 minutes</t>
+  </si>
+  <si>
+    <t>3723295   Pro League Women   Danielle Daley  VS  Soumeya Anane   Tennis   2022-09-01T19:15:00  Status = 1   After game start time out = :  14 hours  1 minutes</t>
+  </si>
+  <si>
+    <t>3717961   European Championship Men   Slovenia  VS  Lithuania   Basketball   2022-09-01T19:15:00  Status = 1   After game start time out = :  14 hours  1 minutes</t>
+  </si>
+  <si>
+    <t>3722935   ITF-W Collonge-Bellerive   Lucrezia Stefanini  VS  Audrey Albie   Tennis   2022-09-01T19:20:00  Status = 1   After game start time out = :  13 hours  56 minutes</t>
+  </si>
+  <si>
+    <t>3723095   ITF-M Setubal Doubles   Elliot Benchetrit / Sasikumar Mukund  VS  Arthur Fery / Sascha Gueymard Wayenburg   Tennis   2022-09-01T19:30:00  Status = 1   After game start time out = :  13 hours  46 minutes</t>
+  </si>
+  <si>
+    <t>3722276   ITF-W Vienna   Lisa-Marie Rioux  VS  Angelica Moratelli   Tennis   2022-09-01T19:30:00  Status = 1   After game start time out = :  13 hours  46 minutes</t>
+  </si>
+  <si>
+    <t>3725493   ITFW25Vienna   Lisa-Marie Rioux  VS  Angelica Moratelli   Tennis   2022-09-01T19:58:29  Status = 1   After game start time out = :  13 hours  17 minutes</t>
+  </si>
+  <si>
+    <t>3719113   WTA US Open   Iga Swiatek  VS  Sloane Stephens   Tennis   2022-09-01T20:00:00  Status = 1   After game start time out = :  13 hours  16 minutes</t>
+  </si>
+  <si>
+    <t>3722443   ITF-W Haren   Jessie Aney  VS  Laia Petretic   Tennis   2022-09-01T20:00:00  Status = 1   After game start time out = :  13 hours  16 minutes</t>
+  </si>
+  <si>
+    <t>3723012   ATP CH Mallorca   Matheus Pucinelli de Almeida  VS  Mikhail Kukushkin   Tennis   2022-09-01T20:00:00  Status = 1   After game start time out = :  13 hours  16 minutes</t>
+  </si>
+  <si>
+    <t>3723014   ATP CH Mallorca   Luca Nardi  VS  Altug Celikbilek   Tennis   2022-09-01T20:20:00  Status = 1   After game start time out = :  12 hours  56 minutes</t>
+  </si>
+  <si>
+    <t>3725559   ITFW25Leiria   Taylor Ng  VS  Sakura Hosogi   Tennis   2022-09-01T20:29:10  Status = 1   After game start time out = :  12 hours  46 minutes</t>
+  </si>
+  <si>
+    <t>3725645   USOpenWomen   Aliaksandra Sasnovich  VS  Jessica Pegula   Tennis   2022-09-01T20:29:35  Status = 1   After game start time out = :  12 hours  46 minutes</t>
+  </si>
+  <si>
+    <t>3716695   WTA US Open Doubles   Panna Udvardy / Tamara Zidansek  VS  Lyudmyla Kichenok/Jelena Ostapenko   Tennis   2022-09-01T22:05:00  Status = 1   After game start time out = :  11 hours  11 minutes</t>
+  </si>
+  <si>
+    <t>3726408   USOpenMD   Altmaier/Monteiro  VS  Dodig/Krajicek   Tennis   2022-09-01T22:40:10  Status = 1   After game start time out = :  10 hours  35 minutes</t>
+  </si>
+  <si>
+    <t>3718425   ATP US Open   Grigor Dimitrov  VS  Brandon Nakashima   Tennis   2022-09-01T23:15:00  Status = 1   After game start time out = :  10 hours  1 minutes</t>
+  </si>
+  <si>
+    <t>3726620   USOpenWomenWD   Krunic/Linette  VS  Danilina/Haddad Maia   Tennis   2022-09-02T00:09:36  Status = 1   After game start time out = :  9 hours  5 minutes</t>
+  </si>
+  <si>
+    <t>3722190   Setka Cup   Oleg Volynets  VS  Yevhen Skorobahatiy   Table Tennis   2022-09-01T18:30:00  Status = 1   After game start time out = :  14 hours  46 minutes</t>
+  </si>
+  <si>
+    <t>3723846   Setka Cup   Maksym Mrykh  VS  Viktor Evtodiy   Table Tennis   2022-09-01T20:10:00  Status = 1   After game start time out = :  13 hours  6 minutes</t>
+  </si>
+  <si>
+    <t>3724249   Setka Cup   Anatolii Dulich  VS  Ivan Pitsko   Table Tennis   2022-09-01T20:20:00  Status = 1   After game start time out = :  12 hours  56 minutes</t>
+  </si>
+  <si>
+    <t>3721532   TT-CUP   Martin Kocvara  VS  Marek Fabini   Table Tennis   2022-09-01T20:20:00  Status = 1   After game start time out = :  12 hours  56 minutes</t>
+  </si>
+  <si>
+    <t>3722289   Setka Cup   Vadym Khorolskyi  VS  Valentyn Lobas   Table Tennis   2022-09-01T20:25:00  Status = 1   After game start time out = :  12 hours  51 minutes</t>
+  </si>
+  <si>
+    <t>3724251   Setka Cup   Vitaliy Makarov  VS  Serhii Chuliukov   Table Tennis   2022-09-01T21:05:00  Status = 1   After game start time out = :  12 hours  11 minutes</t>
+  </si>
+  <si>
+    <t>3724259   Setka Cup   Ivan Pitsko  VS  Rostyslav Fedyna   Table Tennis   2022-09-01T22:20:00  Status = 1   After game start time out = :  10 hours  56 minutes</t>
+  </si>
+  <si>
+    <t>3721548   TT-CUP   Jan Hendrych  VS  Jonas Kulveit   Table Tennis   2022-09-01T22:20:00  Status = 1   After game start time out = :  10 hours  56 minutes</t>
+  </si>
+  <si>
+    <t>3711340   Counter Strike - Elisa Invitational   EYEBALLERS (CS)  VS  Into The Breach (CS)   E-sports   2022-09-01T13:00:00  Status = 1   After game start time out = :  20 hours  16 minutes</t>
+  </si>
+  <si>
+    <t>3720497   Counter Strike - CCT Central Europe   Tricked  VS  MIBR   E-sports   2022-09-01T15:00:00  Status = 1   After game start time out = :  18 hours  16 minutes</t>
+  </si>
+  <si>
+    <t>3720781   Counter Strike - CCT Central Europe   FALCONS (CS)  VS  SKADE (CS)   E-sports   2022-09-01T18:00:00  Status = 1   After game start time out = :  15 hours  16 minutes</t>
+  </si>
+  <si>
+    <t>3716827   Caribbean Premier League   St Lucia Zouks  VS  Trinbago Knight Riders   Cricket   2022-09-01T18:00:00  Status = 1   After game start time out = :  15 hours  16 minutes</t>
+  </si>
+  <si>
+    <t>3674323   Valorant - Champions Cup   Optic Gaming (VLRT)  VS  Boom E-sports (VLRT)   E-sports   2022-09-01T19:00:00  Status = 1   After game start time out = :  14 hours  16 minutes</t>
+  </si>
+  <si>
+    <t>3723290   Counter Strike - ESEA Advanced. Europe   HONORIS (CS)  VS  Marskalk (CS)   E-sports   2022-09-01T20:00:00  Status = 1   After game start time out = :  13 hours  16 minutes</t>
+  </si>
+  <si>
+    <t>3725183   ESL Meisterschaft   Onyx Talents (CS)  VS  Divizon (CS)   E-sports   2022-09-01T22:15:00  Status = 1   After game start time out = :  11 hours  1 minutes</t>
+  </si>
+  <si>
+    <t>3720098   Counter Strike - ESL Mistrzostwa   Turow Zgorzelec (CS)  VS  Illuminar Gaming   E-sports   2022-09-01T22:15:00  Status = 1   After game start time out = :  11 hours  1 minutes</t>
+  </si>
+  <si>
+    <t>3724976   Japan Open MD   ONG Yew Sin / TEO Ee Yi  VS  Choi Solgyu / Won Ho Kim   Badminton   2022-09-02T06:00:00  Status = 1   After game start time out = :  3 hours  15 minutes</t>
+  </si>
+  <si>
+    <t>3725097   Japan Open WD   JEONG Na Eun / KIM Hye Jeong  VS  Febriana Dwipuji KUSUMA / Amalia Cahaya PRATIWI   Badminton   2022-09-02T06:15:00  Status = 1   After game start time out = :  3 hours  0 minutes</t>
+  </si>
+  <si>
+    <t>3727396   MexicoLMB   Tijuana  VS  Monterrey   Baseball   2022-09-02T04:26:16  Status = 1   After game start time out = :  4 hours  48 minutes</t>
   </si>
 </sst>
 </file>
@@ -77,7 +221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -121,6 +265,246 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
